--- a/Myntra.xlsx
+++ b/Myntra.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESoft_Solutions\AutomationPractice\BDD_Framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139BCD42-A206-430E-B2B7-C7B014A25E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE86D7EA-569A-47BB-AC95-F769121D4622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="1820" windowWidth="19200" windowHeight="10010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="151">
   <si>
     <t>Shirts</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Sheos</t>
   </si>
   <si>
-    <t>Walets</t>
-  </si>
-  <si>
     <t>Home decore</t>
   </si>
   <si>
@@ -74,13 +71,422 @@
   </si>
   <si>
     <t>Date and Time</t>
+  </si>
+  <si>
+    <t>Allen Solly</t>
+  </si>
+  <si>
+    <t>Men Leather Two Fold Wallet</t>
+  </si>
+  <si>
+    <t>₹1104</t>
+  </si>
+  <si>
+    <t>United Colors of Benetton</t>
+  </si>
+  <si>
+    <t>₹549</t>
+  </si>
+  <si>
+    <t>Lino Perros</t>
+  </si>
+  <si>
+    <t>Women Maroon Croc Textured Zip Around Wallet</t>
+  </si>
+  <si>
+    <t>₹523</t>
+  </si>
+  <si>
+    <t>French Connection</t>
+  </si>
+  <si>
+    <t>Women Textured Leather Zip Around Wallet</t>
+  </si>
+  <si>
+    <t>₹539</t>
+  </si>
+  <si>
+    <t>T-Shirts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Suits</t>
+  </si>
+  <si>
+    <t>Jackets</t>
+  </si>
+  <si>
+    <t>bath towels</t>
+  </si>
+  <si>
+    <t>wallet</t>
+  </si>
+  <si>
+    <t>woodland</t>
+  </si>
+  <si>
+    <t>Rust Brown Safari Cotton Zero Twist Bath towel</t>
+  </si>
+  <si>
+    <t>₹714</t>
+  </si>
+  <si>
+    <t>DDecor</t>
+  </si>
+  <si>
+    <t>Multicoloured Solid 500 GSM Cotton Bath Towel</t>
+  </si>
+  <si>
+    <t>₹749</t>
+  </si>
+  <si>
+    <t>Twamev</t>
+  </si>
+  <si>
+    <t>Embroidered Sherwani Set</t>
+  </si>
+  <si>
+    <t>MRP₹ 49999</t>
+  </si>
+  <si>
+    <t>Masaba</t>
+  </si>
+  <si>
+    <t>Floral Printed Strapless Top With Trouser &amp; Jacket</t>
+  </si>
+  <si>
+    <t>MRP₹ 50000</t>
+  </si>
+  <si>
+    <t>Just Cavalli</t>
+  </si>
+  <si>
+    <t>Embellished Zip Around Wallet</t>
+  </si>
+  <si>
+    <t>MRP₹ 13999</t>
+  </si>
+  <si>
+    <t>Polo Ralph Lauren</t>
+  </si>
+  <si>
+    <t>MRP₹ 14500</t>
+  </si>
+  <si>
+    <t>HACKETT LONDON</t>
+  </si>
+  <si>
+    <t>Polo Collar Short Sleeves Cotton T-shirt</t>
+  </si>
+  <si>
+    <t>MRP₹ 18500</t>
+  </si>
+  <si>
+    <t>Polo Collar Cotton T-shirt</t>
+  </si>
+  <si>
+    <t>Antar-Agni</t>
+  </si>
+  <si>
+    <t>Mandarin Collar Self Design Samurai Jacket with Pyjama Pants</t>
+  </si>
+  <si>
+    <t>MRP₹ 78000</t>
+  </si>
+  <si>
+    <t>THE HANDMADE FLAIR</t>
+  </si>
+  <si>
+    <t>Blue &amp; Yellow Wooden Wall Painting</t>
+  </si>
+  <si>
+    <t>MRP₹ 129599</t>
+  </si>
+  <si>
+    <t>Grey &amp; Black Abstract Wooden Wall Paintings</t>
+  </si>
+  <si>
+    <t>MRP₹ 151199</t>
+  </si>
+  <si>
+    <t>Heelium</t>
+  </si>
+  <si>
+    <t>Set Of 12 Teal Blue Solid 600 GSM Super Soft Quick Absorbent Bamboo Bath Towels</t>
+  </si>
+  <si>
+    <t>₹9999</t>
+  </si>
+  <si>
+    <t>Lightweight Longline Haath-Phool Raja Koti Jacket</t>
+  </si>
+  <si>
+    <t>MRP₹ 60000</t>
+  </si>
+  <si>
+    <t>Quilted Mock Collar Jacket</t>
+  </si>
+  <si>
+    <t>MRP₹ 69500</t>
+  </si>
+  <si>
+    <t>Roadster</t>
+  </si>
+  <si>
+    <t>The Life Co. Pure Cotton Solid Denim Trucker Jacket</t>
+  </si>
+  <si>
+    <t>₹943</t>
+  </si>
+  <si>
+    <t>SASSAFRAS</t>
+  </si>
+  <si>
+    <t>Women White Self-Striped Corduroy Crop Tailored Jacket</t>
+  </si>
+  <si>
+    <t>₹1034</t>
+  </si>
+  <si>
+    <t>Yellow Irregular Mirror Wall Decor</t>
+  </si>
+  <si>
+    <t>MRP₹ 128349</t>
+  </si>
+  <si>
+    <t>1 Piece Wood Abstract Wall Art</t>
+  </si>
+  <si>
+    <t>₹123983</t>
+  </si>
+  <si>
+    <t>Set Of 12 Grey Solid 600 GSM Quick Absorbent Bamboo Bath Towels</t>
+  </si>
+  <si>
+    <t>Karl Lagerfeld</t>
+  </si>
+  <si>
+    <t>Spread Collar Embroidered Formal Cotton Shirt</t>
+  </si>
+  <si>
+    <t>MRP₹ 29500</t>
+  </si>
+  <si>
+    <t>Van Heusen</t>
+  </si>
+  <si>
+    <t>Slim-Fit Single-Breasted Four-Piece Suit</t>
+  </si>
+  <si>
+    <t>MRP₹ 27999</t>
+  </si>
+  <si>
+    <t>NEHHA NHATA</t>
+  </si>
+  <si>
+    <t>Floral Embroidered Thread Work Pure Silk Kurta &amp; Trousers With Dupatta</t>
+  </si>
+  <si>
+    <t>MRP₹ 52000</t>
+  </si>
+  <si>
+    <t>Single-Breasted Slim-Fit Blazer</t>
+  </si>
+  <si>
+    <t>₹56250</t>
+  </si>
+  <si>
+    <t>5-Piece Self Design Suits</t>
+  </si>
+  <si>
+    <t>MRP₹ 29999</t>
+  </si>
+  <si>
+    <t>Blackberrys</t>
+  </si>
+  <si>
+    <t>Men 3-Piece Slim-Fit Single-Breasted Woolen Formal Suit</t>
+  </si>
+  <si>
+    <t>MRP₹ 34995</t>
+  </si>
+  <si>
+    <t>Jack &amp; Jones</t>
+  </si>
+  <si>
+    <t>Leather Two Fold Wallet</t>
+  </si>
+  <si>
+    <t>MRP₹ 1499</t>
+  </si>
+  <si>
+    <t>MUSH</t>
+  </si>
+  <si>
+    <t>Blue 4 Pcs Bamboo Bath Towels</t>
+  </si>
+  <si>
+    <t>MRP₹ 14392</t>
+  </si>
+  <si>
+    <t>Men Charcoal Grey Textured Slim Fit Formal Suit</t>
+  </si>
+  <si>
+    <t>₹25495</t>
+  </si>
+  <si>
+    <t>Slim-Fit Single-Breasted Three-Piece Formal Suit</t>
+  </si>
+  <si>
+    <t>Nautica</t>
+  </si>
+  <si>
+    <t>Men Tan Brown Solid Perforated Sneakers</t>
+  </si>
+  <si>
+    <t>₹1439</t>
+  </si>
+  <si>
+    <t>HRX by Hrithik Roshan</t>
+  </si>
+  <si>
+    <t>Men White And Grey Memory Foam Non-Marking Running Shoes</t>
+  </si>
+  <si>
+    <t>₹959</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Men G.T. Cut 3 ASW EP Basketball Shoes</t>
+  </si>
+  <si>
+    <t>MRP₹ 18395</t>
+  </si>
+  <si>
+    <t>Men Air Jordan 3 Retro Craft Sneakers</t>
+  </si>
+  <si>
+    <t>MRP₹ 19295</t>
+  </si>
+  <si>
+    <t>Anko</t>
+  </si>
+  <si>
+    <t>White 4 Pieces Cotton 670 GSM Bath Towel</t>
+  </si>
+  <si>
+    <t>MRP₹ 4396</t>
+  </si>
+  <si>
+    <t>Story@home</t>
+  </si>
+  <si>
+    <t>Set of 4 Beige Striped 450GSM Pure Cotton Bath Towels</t>
+  </si>
+  <si>
+    <t>MRP₹ 5196</t>
+  </si>
+  <si>
+    <t>Mock Collar Cotton Bomber Jacket</t>
+  </si>
+  <si>
+    <t>MRP₹ 34500</t>
+  </si>
+  <si>
+    <t>Fred Perry</t>
+  </si>
+  <si>
+    <t>Mandarin Collar Hooded Longline Padded Jacket</t>
+  </si>
+  <si>
+    <t>MRP₹ 42500</t>
+  </si>
+  <si>
+    <t>GANT</t>
+  </si>
+  <si>
+    <t>Embroidered Detail Stand Collar Varsity Jacket</t>
+  </si>
+  <si>
+    <t>MRP₹ 99999</t>
+  </si>
+  <si>
+    <t>Leather Biker Jacket</t>
+  </si>
+  <si>
+    <t>MRP₹ 85000</t>
+  </si>
+  <si>
+    <t>Ethnic Motifs Embroidered Sequinned Shahi Tukda Tissue Saree</t>
+  </si>
+  <si>
+    <t>MRP₹ 63000</t>
+  </si>
+  <si>
+    <t>MOKSHA DESIGNS</t>
+  </si>
+  <si>
+    <t>Woven Design Zari Pure Silk Kanjeevaram Saree</t>
+  </si>
+  <si>
+    <t>₹67056</t>
+  </si>
+  <si>
+    <t>Anjaneya Sarees</t>
+  </si>
+  <si>
+    <t>Ethnic Motifs Zari Chanderi Saree</t>
+  </si>
+  <si>
+    <t>KALINI</t>
+  </si>
+  <si>
+    <t>Women Blue Sarees</t>
+  </si>
+  <si>
+    <t>₹499</t>
+  </si>
+  <si>
+    <t>Blue &amp; White Mystical Deer Framed Painting Wall Art</t>
+  </si>
+  <si>
+    <t>₹70847</t>
+  </si>
+  <si>
+    <t>Brown &amp; Gold-Toned Abstract Framed Painting Wall Art</t>
+  </si>
+  <si>
+    <t>₹98399</t>
+  </si>
+  <si>
+    <t>Striped Zari Banarasi Saree</t>
+  </si>
+  <si>
+    <t>₹1079</t>
+  </si>
+  <si>
+    <t>Checked Zari Silk Banarasi Saree</t>
+  </si>
+  <si>
+    <t>₹1109</t>
+  </si>
+  <si>
+    <t>Open Toe Kitten Heels</t>
+  </si>
+  <si>
+    <t>₹27000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,16 +494,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -105,12 +562,240 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="medium"/>
+    </border>
+    <border>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,48 +1076,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -442,54 +1155,659 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95572E08-B2A5-42D5-8863-DC8E08610FF4}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="38.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="5">
+        <v>98</v>
+      </c>
+      <c r="B37" t="s" s="6">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s" s="9">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s" s="10">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="11">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s" s="12">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s" s="13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="14">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s" s="15">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s" s="16">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="17">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s" s="18">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="32">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s" s="33">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s" s="34">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="35">
+        <v>123</v>
+      </c>
+      <c r="B47" t="s" s="36">
+        <v>124</v>
+      </c>
+      <c r="C47" t="s" s="37">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="38">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s" s="39">
+        <v>127</v>
+      </c>
+      <c r="C48" t="s" s="40">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="41">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s" s="42">
+        <v>129</v>
+      </c>
+      <c r="C49" t="s" s="43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="44">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s" s="45">
+        <v>131</v>
+      </c>
+      <c r="C50" t="s" s="46">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="47">
+        <v>133</v>
+      </c>
+      <c r="B51" t="s" s="48">
+        <v>134</v>
+      </c>
+      <c r="C51" t="s" s="49">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="50">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s" s="51">
+        <v>137</v>
+      </c>
+      <c r="C52" t="s" s="52">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="53">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s" s="54">
+        <v>139</v>
+      </c>
+      <c r="C53" t="s" s="55">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="56">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s" s="57">
+        <v>141</v>
+      </c>
+      <c r="C54" t="s" s="58">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="59">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s" s="60">
+        <v>143</v>
+      </c>
+      <c r="C55" t="s" s="61">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="62">
+        <v>136</v>
+      </c>
+      <c r="B56" t="s" s="63">
+        <v>145</v>
+      </c>
+      <c r="C56" t="s" s="64">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="65">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s" s="66">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s" s="67">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="68">
+        <v>47</v>
+      </c>
+      <c r="B58" t="s" s="69">
+        <v>149</v>
+      </c>
+      <c r="C58" t="s" s="70">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Myntra.xlsx
+++ b/Myntra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESoft_Solutions\AutomationPractice\BDD_Framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE86D7EA-569A-47BB-AC95-F769121D4622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08F0C75-2EF9-4DA3-859E-DAA075DE2E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1820" windowWidth="19200" windowHeight="10010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2570" yWindow="2140" windowWidth="18930" windowHeight="10090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="164">
   <si>
     <t>Shirts</t>
   </si>
@@ -479,6 +479,45 @@
   </si>
   <si>
     <t>₹27000</t>
+  </si>
+  <si>
+    <t>Men Textured Lace Up Sneakers</t>
+  </si>
+  <si>
+    <t>Men Printed Lace Up Leather Sneakers</t>
+  </si>
+  <si>
+    <t>MRP₹ 34999</t>
+  </si>
+  <si>
+    <t>Mufasa</t>
+  </si>
+  <si>
+    <t>Black &amp; Rose Gold Aluminium LED Picture Mirror Light Rectangular Wall Lamp</t>
+  </si>
+  <si>
+    <t>MRP₹ 1999</t>
+  </si>
+  <si>
+    <t>RANDOM</t>
+  </si>
+  <si>
+    <t>White &amp; Black Textured Round Contemporary Wall Clock</t>
+  </si>
+  <si>
+    <t>₹649</t>
+  </si>
+  <si>
+    <t>Puma</t>
+  </si>
+  <si>
+    <t>Men Black Graphic Slim Fit T-Shirt</t>
+  </si>
+  <si>
+    <t>Women Graphic Printed Leather Two Fold Wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15500</t>
   </si>
 </sst>
 </file>
@@ -501,7 +540,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,18 +548,8 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <bgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="53"/>
       </patternFill>
     </fill>
     <fill>
@@ -529,24 +558,12 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="12"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="64"/>
-      </patternFill>
+      <patternFill patternType="solid"/>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -554,12 +571,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,216 +616,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true" vertical="top" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true" vertical="top" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
-      <alignment wrapText="true" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true" vertical="top" horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1155,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95572E08-B2A5-42D5-8863-DC8E08610FF4}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1557,73 +1412,73 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B36" t="s" s="3">
+      <c r="B36" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C36" t="s" s="4">
+      <c r="C36" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B37" t="s" s="6">
+      <c r="B37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C37" t="s" s="7">
+      <c r="C37" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s" s="8">
+    <row r="38" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B38" t="s" s="9">
+      <c r="B38" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C38" t="s" s="10">
+      <c r="C38" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="11">
+    <row r="39" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B39" t="s" s="12">
+      <c r="B39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C39" t="s" s="13">
+      <c r="C39" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s" s="14">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B40" t="s" s="15">
+      <c r="B40" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C40" t="s" s="16">
+      <c r="C40" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="17">
+    <row r="41" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B41" t="s" s="18">
+      <c r="B41" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C41" t="s" s="19">
+      <c r="C41" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -1634,7 +1489,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -1645,7 +1500,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -1656,7 +1511,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -1667,147 +1522,213 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s" s="32">
+    <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B46" t="s" s="33">
+      <c r="B46" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C46" t="s" s="34">
+      <c r="C46" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="s" s="35">
+    <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B47" t="s" s="36">
+      <c r="B47" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C47" t="s" s="37">
+      <c r="C47" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s" s="38">
+    <row r="48" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B48" t="s" s="39">
+      <c r="B48" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C48" t="s" s="40">
+      <c r="C48" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s" s="41">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B49" t="s" s="42">
+      <c r="B49" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C49" t="s" s="43">
+      <c r="C49" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="s" s="44">
+    <row r="50" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B50" t="s" s="45">
+      <c r="B50" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C50" t="s" s="46">
+      <c r="C50" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="47">
+    <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B51" t="s" s="48">
+      <c r="B51" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C51" t="s" s="49">
+      <c r="C51" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s" s="50">
+    <row r="52" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B52" t="s" s="51">
+      <c r="B52" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C52" t="s" s="52">
+      <c r="C52" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s" s="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B53" t="s" s="54">
+      <c r="B53" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C53" t="s" s="55">
+      <c r="C53" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s" s="56">
+    <row r="54" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B54" t="s" s="57">
+      <c r="B54" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C54" t="s" s="58">
+      <c r="C54" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s" s="59">
+    <row r="55" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B55" t="s" s="60">
+      <c r="B55" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C55" t="s" s="61">
+      <c r="C55" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s" s="62">
+    <row r="56" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B56" t="s" s="63">
+      <c r="B56" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C56" t="s" s="64">
+      <c r="C56" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s" s="65">
+    <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B57" t="s" s="66">
+      <c r="B57" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C57" t="s" s="67">
+      <c r="C57" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s" s="68">
+    <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B58" t="s" s="69">
+      <c r="B58" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C58" t="s" s="70">
+      <c r="C58" s="8" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="9">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s" s="10">
+        <v>162</v>
+      </c>
+      <c r="C64" t="s" s="11">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Myntra.xlsx
+++ b/Myntra.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
   <si>
     <t>Shirts</t>
   </si>
@@ -518,6 +518,33 @@
   </si>
   <si>
     <t xml:space="preserve"> 15500</t>
+  </si>
+  <si>
+    <t>Cottinfab</t>
+  </si>
+  <si>
+    <t>Women White &amp; Blue Striped Lightweight Cotton Open Front Jacket</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>H&amp;M</t>
+  </si>
+  <si>
+    <t>Puffer Gilet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499</t>
+  </si>
+  <si>
+    <t>The Indian Garage Co</t>
+  </si>
+  <si>
+    <t>Men Peach-Coloured &amp; White Comfort Fit Checked Casual Shirt</t>
+  </si>
+  <si>
+    <t>682</t>
   </si>
 </sst>
 </file>
@@ -616,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -641,6 +668,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true" vertical="top" horizontal="left"/>
@@ -1010,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95572E08-B2A5-42D5-8863-DC8E08610FF4}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
@@ -1731,6 +1785,39 @@
         <v>163</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="s" s="12">
+        <v>164</v>
+      </c>
+      <c r="B65" t="s" s="13">
+        <v>165</v>
+      </c>
+      <c r="C65" t="s" s="14">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="15">
+        <v>167</v>
+      </c>
+      <c r="B66" t="s" s="16">
+        <v>168</v>
+      </c>
+      <c r="C66" t="s" s="17">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="18">
+        <v>170</v>
+      </c>
+      <c r="B67" t="s" s="19">
+        <v>171</v>
+      </c>
+      <c r="C67" t="s" s="20">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Myntra.xlsx
+++ b/Myntra.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="273">
   <si>
     <t>Shirts</t>
   </si>
@@ -545,6 +545,306 @@
   </si>
   <si>
     <t>682</t>
+  </si>
+  <si>
+    <t>Men Black Textured Two Fold Leather Wallet</t>
+  </si>
+  <si>
+    <t>1594</t>
+  </si>
+  <si>
+    <t>DailyObjects</t>
+  </si>
+  <si>
+    <t>Women Violet &amp; Orange Printed PU Zip Around Wallet</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>2-Piece Blade Woven-Design Long Bandhgala Jacket &amp; Cigarette Fit Trouser Suit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68700</t>
+  </si>
+  <si>
+    <t>Button-Down Collar Pure Cotton Casual Shirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12500</t>
+  </si>
+  <si>
+    <t>Rohit Gandhi + Rahul Khanna</t>
+  </si>
+  <si>
+    <t>Comfort Geometric Printed Cotton Casual Shirt</t>
+  </si>
+  <si>
+    <t>Versace Jeans Couture</t>
+  </si>
+  <si>
+    <t>Typography Printed Cotton T-shirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27500</t>
+  </si>
+  <si>
+    <t>Hooded Padded Jacket</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62000</t>
+  </si>
+  <si>
+    <t>Ajanta</t>
+  </si>
+  <si>
+    <t>White &amp; Golden Textured Square Analogue Wall Clock</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>Wintage</t>
+  </si>
+  <si>
+    <t>Embroidered Velvet Nehru Jacket</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1699</t>
+  </si>
+  <si>
+    <t>Embroidered Border Pure Georgette Neel- Kamal Saree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63000</t>
+  </si>
+  <si>
+    <t>Hooded Longline Tailored Jacket</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56500</t>
+  </si>
+  <si>
+    <t>Ethnic Motifs Embroidered Sequinned Anarkali Kurta With Trousers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65000</t>
+  </si>
+  <si>
+    <t>Graphic Printed Cotton T-Shirt</t>
+  </si>
+  <si>
+    <t>Unisex Set of 6 Quick Absorbent 600 GSM Bamboo Bath Towel - 65 x 40 cm</t>
+  </si>
+  <si>
+    <t>5749</t>
+  </si>
+  <si>
+    <t>Vertical Stripes Casual Shirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11999</t>
+  </si>
+  <si>
+    <t>HIGHLANDER</t>
+  </si>
+  <si>
+    <t>Men White Slim Fit Casual Shirt</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>Men Blue Solid Leather Two Fold Wallet</t>
+  </si>
+  <si>
+    <t>1624</t>
+  </si>
+  <si>
+    <t>URBAN FOREST</t>
+  </si>
+  <si>
+    <t>Men Colourblocked Leather Two Fold Wallet</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>Crosscut</t>
+  </si>
+  <si>
+    <t>Beige &amp; Black Metal Cylinder Shaped Floor Lamp With Shelves</t>
+  </si>
+  <si>
+    <t>1746</t>
+  </si>
+  <si>
+    <t>Men Air Jordan XXXVIII Chinese New Year PF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18395</t>
+  </si>
+  <si>
+    <t>Women Air Jordan 5 Retro Leather Sneakers</t>
+  </si>
+  <si>
+    <t>True Religion</t>
+  </si>
+  <si>
+    <t>Women Super T Jennie Skinny Fit High-Rise Heavy Fade Stretchable Jeans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26999</t>
+  </si>
+  <si>
+    <t>Women Zip Around Wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 990</t>
+  </si>
+  <si>
+    <t>PriyankaRaajiv</t>
+  </si>
+  <si>
+    <t>Ethnic Motifs Woven Design Pure Silk Banarasi Saree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 120000</t>
+  </si>
+  <si>
+    <t>Washed Denim Jacket</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>Calvin Klein</t>
+  </si>
+  <si>
+    <t>Men Leather RFID Two Fold Wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5999</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29999</t>
+  </si>
+  <si>
+    <t>Men Air Jordan 5 Retro Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19295</t>
+  </si>
+  <si>
+    <t>KLOTTHE</t>
+  </si>
+  <si>
+    <t>Men Navy Blue Checked Single-Breasted 3-Piece Suits</t>
+  </si>
+  <si>
+    <t>4049</t>
+  </si>
+  <si>
+    <t>Colourblocked Water-Repellent Hooded Puffer Jacket</t>
+  </si>
+  <si>
+    <t>27000</t>
+  </si>
+  <si>
+    <t>Washed Spread Collar Denim Jacket</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32999</t>
+  </si>
+  <si>
+    <t>Floral Printed Embroidered Raw Silk Gulaab Saree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73000</t>
+  </si>
+  <si>
+    <t>Floral Woven Design Zari Pure Silk Banarasi Saree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29995</t>
+  </si>
+  <si>
+    <t>Luxure by Louis Philippe</t>
+  </si>
+  <si>
+    <t>Slim-Fit Single Breasted Pure Wool 2Piece Formal Suits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27999</t>
+  </si>
+  <si>
+    <t>Hangup</t>
+  </si>
+  <si>
+    <t>Men Black Solid Single-Breasted 2-Piece Suits</t>
+  </si>
+  <si>
+    <t>2659</t>
+  </si>
+  <si>
+    <t>DKGF FASHION</t>
+  </si>
+  <si>
+    <t>Boys Single Breasted Party 3-Piece Suits</t>
+  </si>
+  <si>
+    <t>1169</t>
+  </si>
+  <si>
+    <t>Men Mesh Running Shoes</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>Killer</t>
+  </si>
+  <si>
+    <t>Men Navy Blue Slip-On Sneakers</t>
+  </si>
+  <si>
+    <t>619</t>
+  </si>
+  <si>
+    <t>Bhunes</t>
+  </si>
+  <si>
+    <t>Gold-Toned Brass Religious Idol Showpiece</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 240399</t>
+  </si>
+  <si>
+    <t>BUY NEW TREND</t>
+  </si>
+  <si>
+    <t>Plus Size Spread Collar Lightweight Cotton Denim Jacket</t>
+  </si>
+  <si>
+    <t>899</t>
+  </si>
+  <si>
+    <t>Anouk</t>
+  </si>
+  <si>
+    <t>Embroidered Nehru Jacket</t>
+  </si>
+  <si>
+    <t>1399</t>
   </si>
 </sst>
 </file>
@@ -567,7 +867,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,6 +895,16 @@
     <fill>
       <patternFill patternType="none">
         <fgColor indexed="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="14"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
       </patternFill>
     </fill>
   </fills>
@@ -643,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -668,6 +978,429 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true" vertical="top" horizontal="left"/>
@@ -1064,7 +1797,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95572E08-B2A5-42D5-8863-DC8E08610FF4}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
@@ -1818,6 +2551,523 @@
         <v>172</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s" s="22">
+        <v>173</v>
+      </c>
+      <c r="C68" t="s" s="23">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="24">
+        <v>175</v>
+      </c>
+      <c r="B69" t="s" s="25">
+        <v>176</v>
+      </c>
+      <c r="C69" t="s" s="26">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="27">
+        <v>53</v>
+      </c>
+      <c r="B70" t="s" s="28">
+        <v>178</v>
+      </c>
+      <c r="C70" t="s" s="29">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="30">
+        <v>49</v>
+      </c>
+      <c r="B71" t="s" s="31">
+        <v>180</v>
+      </c>
+      <c r="C71" t="s" s="32">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="33">
+        <v>182</v>
+      </c>
+      <c r="B72" t="s" s="34">
+        <v>183</v>
+      </c>
+      <c r="C72" t="s" s="35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="36">
+        <v>184</v>
+      </c>
+      <c r="B73" t="s" s="37">
+        <v>185</v>
+      </c>
+      <c r="C73" t="s" s="38">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="39">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s" s="40">
+        <v>187</v>
+      </c>
+      <c r="C74" t="s" s="41">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="42">
+        <v>189</v>
+      </c>
+      <c r="B75" t="s" s="43">
+        <v>190</v>
+      </c>
+      <c r="C75" t="s" s="44">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="45">
+        <v>192</v>
+      </c>
+      <c r="B76" t="s" s="46">
+        <v>193</v>
+      </c>
+      <c r="C76" t="s" s="47">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="48">
+        <v>41</v>
+      </c>
+      <c r="B77" t="s" s="49">
+        <v>195</v>
+      </c>
+      <c r="C77" t="s" s="50">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="51">
+        <v>41</v>
+      </c>
+      <c r="B78" t="s" s="52">
+        <v>131</v>
+      </c>
+      <c r="C78" t="s" s="53">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="54">
+        <v>49</v>
+      </c>
+      <c r="B79" t="s" s="55">
+        <v>198</v>
+      </c>
+      <c r="C79" t="s" s="56">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="57">
+        <v>41</v>
+      </c>
+      <c r="B80" t="s" s="58">
+        <v>200</v>
+      </c>
+      <c r="C80" t="s" s="59">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="60">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s" s="61">
+        <v>202</v>
+      </c>
+      <c r="C81" t="s" s="62">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="63">
+        <v>61</v>
+      </c>
+      <c r="B82" t="s" s="64">
+        <v>203</v>
+      </c>
+      <c r="C82" t="s" s="65">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="66">
+        <v>126</v>
+      </c>
+      <c r="B83" t="s" s="67">
+        <v>205</v>
+      </c>
+      <c r="C83" t="s" s="68">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="69">
+        <v>207</v>
+      </c>
+      <c r="B84" t="s" s="70">
+        <v>208</v>
+      </c>
+      <c r="C84" t="s" s="71">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="72">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s" s="73">
+        <v>210</v>
+      </c>
+      <c r="C85" t="s" s="74">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="75">
+        <v>212</v>
+      </c>
+      <c r="B86" t="s" s="76">
+        <v>213</v>
+      </c>
+      <c r="C86" t="s" s="77">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="78">
+        <v>215</v>
+      </c>
+      <c r="B87" t="s" s="79">
+        <v>216</v>
+      </c>
+      <c r="C87" t="s" s="80">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="81">
+        <v>110</v>
+      </c>
+      <c r="B88" t="s" s="82">
+        <v>218</v>
+      </c>
+      <c r="C88" t="s" s="83">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="84">
+        <v>110</v>
+      </c>
+      <c r="B89" t="s" s="85">
+        <v>220</v>
+      </c>
+      <c r="C89" t="s" s="86">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="87">
+        <v>221</v>
+      </c>
+      <c r="B90" t="s" s="88">
+        <v>222</v>
+      </c>
+      <c r="C90" t="s" s="89">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="90">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s" s="91">
+        <v>224</v>
+      </c>
+      <c r="C91" t="s" s="92">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="93">
+        <v>175</v>
+      </c>
+      <c r="B92" t="s" s="94">
+        <v>176</v>
+      </c>
+      <c r="C92" t="s" s="95">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="96">
+        <v>226</v>
+      </c>
+      <c r="B93" t="s" s="97">
+        <v>227</v>
+      </c>
+      <c r="C93" t="s" s="98">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="99">
+        <v>226</v>
+      </c>
+      <c r="B94" t="s" s="100">
+        <v>227</v>
+      </c>
+      <c r="C94" t="s" s="101">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="102">
+        <v>170</v>
+      </c>
+      <c r="B95" t="s" s="103">
+        <v>229</v>
+      </c>
+      <c r="C95" t="s" s="104">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="105">
+        <v>231</v>
+      </c>
+      <c r="B96" t="s" s="106">
+        <v>232</v>
+      </c>
+      <c r="C96" t="s" s="107">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="108">
+        <v>61</v>
+      </c>
+      <c r="B97" t="s" s="109">
+        <v>62</v>
+      </c>
+      <c r="C97" t="s" s="110">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="111">
+        <v>38</v>
+      </c>
+      <c r="B98" t="s" s="112">
+        <v>90</v>
+      </c>
+      <c r="C98" t="s" s="113">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="114">
+        <v>110</v>
+      </c>
+      <c r="B99" t="s" s="115">
+        <v>236</v>
+      </c>
+      <c r="C99" t="s" s="116">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="117">
+        <v>238</v>
+      </c>
+      <c r="B100" t="s" s="118">
+        <v>239</v>
+      </c>
+      <c r="C100" t="s" s="119">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="120">
+        <v>47</v>
+      </c>
+      <c r="B101" t="s" s="121">
+        <v>241</v>
+      </c>
+      <c r="C101" t="s" s="122">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="123">
+        <v>221</v>
+      </c>
+      <c r="B102" t="s" s="124">
+        <v>243</v>
+      </c>
+      <c r="C102" t="s" s="125">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="126">
+        <v>41</v>
+      </c>
+      <c r="B103" t="s" s="127">
+        <v>245</v>
+      </c>
+      <c r="C103" t="s" s="128">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="129">
+        <v>226</v>
+      </c>
+      <c r="B104" t="s" s="130">
+        <v>247</v>
+      </c>
+      <c r="C104" t="s" s="131">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="132">
+        <v>92</v>
+      </c>
+      <c r="B105" t="s" s="133">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s" s="134">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="135">
+        <v>250</v>
+      </c>
+      <c r="B106" t="s" s="136">
+        <v>251</v>
+      </c>
+      <c r="C106" t="s" s="137">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="138">
+        <v>253</v>
+      </c>
+      <c r="B107" t="s" s="139">
+        <v>254</v>
+      </c>
+      <c r="C107" t="s" s="140">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="141">
+        <v>256</v>
+      </c>
+      <c r="B108" t="s" s="142">
+        <v>257</v>
+      </c>
+      <c r="C108" t="s" s="143">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="144">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s" s="145">
+        <v>259</v>
+      </c>
+      <c r="C109" t="s" s="146">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="147">
+        <v>261</v>
+      </c>
+      <c r="B110" t="s" s="148">
+        <v>262</v>
+      </c>
+      <c r="C110" t="s" s="149">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="150">
+        <v>264</v>
+      </c>
+      <c r="B111" t="s" s="151">
+        <v>265</v>
+      </c>
+      <c r="C111" t="s" s="152">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="153">
+        <v>264</v>
+      </c>
+      <c r="B112" t="s" s="154">
+        <v>265</v>
+      </c>
+      <c r="C112" t="s" s="155">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="156">
+        <v>267</v>
+      </c>
+      <c r="B113" t="s" s="157">
+        <v>268</v>
+      </c>
+      <c r="C113" t="s" s="158">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="159">
+        <v>270</v>
+      </c>
+      <c r="B114" t="s" s="160">
+        <v>271</v>
+      </c>
+      <c r="C114" t="s" s="161">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
